--- a/src/analysis_examples/circadb/results_lomb/cosinor_10431300_alg12_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10431300_alg12_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2439361278613501, 0.3736809989364962]</t>
+          <t>[0.2456031978450069, 0.3720139289528394]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.311740354699054e-09</v>
+        <v>1.464750321034103e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.311740354699054e-09</v>
+        <v>1.464750321034103e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.779894872963232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38113104653950014, 0.44686940587553015]</t>
+          <t>[0.38109488310967093, 0.44690556930535935]</t>
         </is>
       </c>
       <c r="U2" t="n">
